--- a/catalogoarea.xlsx
+++ b/catalogoarea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonya\Documents\Empleos\The Blanc Group Drive\The Blanc Group\Documentos\WEB\GitHubApp\clkrmtchNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C3E12E-5639-4948-B81B-9C66D999DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{731F7D55-EA2F-469C-99E9-DD38F1D0E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5670" yWindow="3195" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
@@ -982,10 +982,10 @@
     <t>title_minusc</t>
   </si>
   <si>
-    <t>Nivel_Jerarquico</t>
-  </si>
-  <si>
     <t>area_mayor</t>
+  </si>
+  <si>
+    <t>area_menor</t>
   </si>
 </sst>
 </file>
@@ -1828,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/catalogoarea.xlsx
+++ b/catalogoarea.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonya\Documents\Empleos\The Blanc Group Drive\The Blanc Group\Documentos\WEB\GitHubApp\clkrmtchNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{731F7D55-EA2F-469C-99E9-DD38F1D0E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8471B211-FB61-4404-A45A-19A2757E7860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="3195" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="3855" yWindow="1410" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogo palabra clave en Title" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="331">
   <si>
     <t>Cuenta de Area_Mayor</t>
   </si>
@@ -301,9 +301,6 @@
     <t>marketing</t>
   </si>
   <si>
-    <t>administración</t>
-  </si>
-  <si>
     <t>finanzas</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>Desarrollo de Producto</t>
   </si>
   <si>
-    <t>purchas</t>
-  </si>
-  <si>
     <t>trade marketing</t>
   </si>
   <si>
@@ -706,9 +700,6 @@
     <t>innova</t>
   </si>
   <si>
-    <t>business intelligence</t>
-  </si>
-  <si>
     <t>finance business partner</t>
   </si>
   <si>
@@ -736,15 +727,9 @@
     <t>global marketing</t>
   </si>
   <si>
-    <t>relaciones p</t>
-  </si>
-  <si>
     <t>Relaciones Públicas</t>
   </si>
   <si>
-    <t>branding</t>
-  </si>
-  <si>
     <t>compra</t>
   </si>
   <si>
@@ -986,12 +971,54 @@
   </si>
   <si>
     <t>area_menor</t>
+  </si>
+  <si>
+    <t>dir general</t>
+  </si>
+  <si>
+    <t>logistics</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>tesoreria</t>
+  </si>
+  <si>
+    <t>cuentas</t>
+  </si>
+  <si>
+    <t>academica</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>purchaser</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>manufactura</t>
+  </si>
+  <si>
+    <t>administracion</t>
+  </si>
+  <si>
+    <t>contenido</t>
+  </si>
+  <si>
+    <t>reclutamiento</t>
+  </si>
+  <si>
+    <t>relaciones publicas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1825,11 +1852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,13 +1868,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2810,13 +2837,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2827,13 +2854,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>5579</v>
@@ -2844,13 +2871,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D60">
         <v>5196</v>
@@ -2861,13 +2888,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D61">
         <v>4165</v>
@@ -2878,13 +2905,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D62">
         <v>2856</v>
@@ -2895,13 +2922,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>2625</v>
@@ -2912,13 +2939,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <v>2618</v>
@@ -2929,13 +2956,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D65">
         <v>2207</v>
@@ -2946,13 +2973,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D66">
         <v>1520</v>
@@ -2963,7 +2990,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
@@ -2980,13 +3007,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D68">
         <v>788</v>
@@ -2997,13 +3024,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D69">
         <v>603</v>
@@ -3014,13 +3041,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D70">
         <v>465</v>
@@ -3031,13 +3058,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D71">
         <v>426</v>
@@ -3048,13 +3075,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D72">
         <v>413</v>
@@ -3065,13 +3092,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D73">
         <v>343</v>
@@ -3082,13 +3109,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D74">
         <v>342</v>
@@ -3099,13 +3126,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D75">
         <v>322</v>
@@ -3116,13 +3143,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D76">
         <v>306</v>
@@ -3133,13 +3160,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D77">
         <v>268</v>
@@ -3150,13 +3177,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="D78">
         <v>267</v>
@@ -3167,13 +3194,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D79">
         <v>264</v>
@@ -3184,13 +3211,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D80">
         <v>254</v>
@@ -3201,13 +3228,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D81">
         <v>245</v>
@@ -3218,13 +3245,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D82">
         <v>239</v>
@@ -3235,13 +3262,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D83">
         <v>235</v>
@@ -3252,13 +3279,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D84">
         <v>216</v>
@@ -3272,10 +3299,10 @@
         <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D85">
         <v>214</v>
@@ -3286,13 +3313,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D86">
         <v>210</v>
@@ -3303,13 +3330,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="D87">
         <v>200</v>
@@ -3320,13 +3347,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="D88">
         <v>188</v>
@@ -3337,13 +3364,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="D89">
         <v>187</v>
@@ -3354,7 +3381,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s">
         <v>65</v>
@@ -3371,13 +3398,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D91">
         <v>174</v>
@@ -3388,13 +3415,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="D92">
         <v>157</v>
@@ -3405,13 +3432,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D93">
         <v>154</v>
@@ -3422,13 +3449,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>318</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D94">
         <v>146</v>
@@ -3439,13 +3466,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="D95">
         <v>124</v>
@@ -3456,13 +3483,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96">
         <v>122</v>
@@ -3473,13 +3500,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97">
         <v>120</v>
@@ -3490,13 +3517,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D98">
         <v>118</v>
@@ -3507,13 +3534,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>321</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="D99">
         <v>115</v>
@@ -3524,13 +3551,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="D100">
         <v>115</v>
@@ -3541,13 +3568,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D101">
         <v>113</v>
@@ -3558,13 +3585,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="D102">
         <v>113</v>
@@ -3575,13 +3602,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D103">
         <v>109</v>
@@ -3592,13 +3619,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="D104">
         <v>109</v>
@@ -3609,13 +3636,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
         <v>75</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D105">
         <v>102</v>
@@ -3626,13 +3653,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D106">
         <v>101</v>
@@ -3643,13 +3670,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D107">
         <v>100</v>
@@ -3660,13 +3687,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D108">
         <v>98</v>
@@ -3677,13 +3704,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D109">
         <v>96</v>
@@ -3694,13 +3721,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
         <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D110">
         <v>93</v>
@@ -3711,13 +3738,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D111">
         <v>91</v>
@@ -3728,13 +3755,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D112">
         <v>91</v>
@@ -3745,13 +3772,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="D113">
         <v>84</v>
@@ -3762,13 +3789,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D114">
         <v>84</v>
@@ -3779,13 +3806,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
         <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="D115">
         <v>82</v>
@@ -3796,13 +3823,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D116">
         <v>81</v>
@@ -3813,13 +3840,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="D117">
         <v>80</v>
@@ -3830,13 +3857,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B118" t="s">
         <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D118">
         <v>79</v>
@@ -3847,13 +3874,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="D119">
         <v>77</v>
@@ -3864,13 +3891,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D120">
         <v>72</v>
@@ -3881,13 +3908,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D121">
         <v>61</v>
@@ -3898,13 +3925,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D122">
         <v>59</v>
@@ -3915,13 +3942,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123">
         <v>58</v>
@@ -3932,13 +3959,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>58</v>
@@ -3949,13 +3976,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="D125">
         <v>57</v>
@@ -3966,13 +3993,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D126">
         <v>53</v>
@@ -3983,13 +4010,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="D127">
         <v>52</v>
@@ -4000,13 +4027,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="D128">
         <v>50</v>
@@ -4017,13 +4044,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="D129">
         <v>49</v>
@@ -4034,13 +4061,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="D130">
         <v>48</v>
@@ -4051,13 +4078,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C131" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D131">
         <v>42</v>
@@ -4068,13 +4095,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D132">
         <v>42</v>
@@ -4085,13 +4112,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
         <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="D133">
         <v>41</v>
@@ -4102,13 +4129,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D134">
         <v>39</v>
@@ -4119,13 +4146,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="D135">
         <v>38</v>
@@ -4136,13 +4163,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="D136">
         <v>38</v>
@@ -4153,13 +4180,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="D137">
         <v>38</v>
@@ -4170,13 +4197,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B138" t="s">
         <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D138">
         <v>37</v>
@@ -4187,13 +4214,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B139" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D139">
         <v>37</v>
@@ -4204,13 +4231,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="D140">
         <v>36</v>
@@ -4221,13 +4248,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="D141">
         <v>35</v>
@@ -4238,13 +4265,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B142" t="s">
         <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="D142">
         <v>34</v>
@@ -4255,13 +4282,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C143" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D143">
         <v>33</v>
@@ -4272,13 +4299,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B144" t="s">
         <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="D144">
         <v>32</v>
@@ -4289,13 +4316,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="D145">
         <v>32</v>
@@ -4306,13 +4333,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D146">
         <v>31</v>
@@ -4323,13 +4350,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="D147">
         <v>30</v>
@@ -4340,13 +4367,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C148" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="D148">
         <v>29</v>
@@ -4357,13 +4384,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="D149">
         <v>29</v>
@@ -4374,13 +4401,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>325</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="D150">
         <v>28</v>
@@ -4391,13 +4418,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="D151">
         <v>28</v>
@@ -4408,13 +4435,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="D152">
         <v>28</v>
@@ -4425,13 +4452,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B153" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D153">
         <v>27</v>
@@ -4442,13 +4469,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="D154">
         <v>26</v>
@@ -4459,13 +4486,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D155">
         <v>25</v>
@@ -4476,13 +4503,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="D156">
         <v>25</v>
@@ -4493,13 +4520,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C157" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D157">
         <v>25</v>
@@ -4510,13 +4537,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C158" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="D158">
         <v>23</v>
@@ -4527,13 +4554,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="D159">
         <v>23</v>
@@ -4544,13 +4571,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="D160">
         <v>22</v>
@@ -4561,13 +4588,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B161" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C161" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D161">
         <v>22</v>
@@ -4578,13 +4605,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="D162">
         <v>22</v>
@@ -4595,13 +4622,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D163">
         <v>21</v>
@@ -4612,13 +4639,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D164">
         <v>21</v>
@@ -4629,13 +4656,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C165" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="D165">
         <v>21</v>
@@ -4646,13 +4673,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D166">
         <v>19</v>
@@ -4663,13 +4690,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C167" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="D167">
         <v>19</v>
@@ -4680,13 +4707,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="D168">
         <v>19</v>
@@ -4697,13 +4724,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D169">
         <v>18</v>
@@ -4714,13 +4741,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C170" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D170">
         <v>17</v>
@@ -4731,13 +4758,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D171">
         <v>17</v>
@@ -4748,13 +4775,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C172" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="D172">
         <v>17</v>
@@ -4765,13 +4792,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B173" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="D173">
         <v>17</v>
@@ -4782,13 +4809,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="D174">
         <v>17</v>
@@ -4799,13 +4826,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D175">
         <v>16</v>
@@ -4816,13 +4843,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D176">
         <v>15</v>
@@ -4833,13 +4860,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B177" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C177" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="D177">
         <v>15</v>
@@ -4850,13 +4877,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D178">
         <v>14</v>
@@ -4867,13 +4894,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="D179">
         <v>14</v>
@@ -4884,13 +4911,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="D180">
         <v>14</v>
@@ -4901,13 +4928,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B181" t="s">
         <v>39</v>
       </c>
       <c r="C181" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D181">
         <v>13</v>
@@ -4918,13 +4945,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B182" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="D182">
         <v>13</v>
@@ -4935,13 +4962,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="D183">
         <v>13</v>
@@ -4952,13 +4979,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B184" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D184">
         <v>11</v>
@@ -4969,13 +4996,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C185" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="D185">
         <v>11</v>
@@ -4986,13 +5013,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B186" t="s">
         <v>39</v>
       </c>
       <c r="C186" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D186">
         <v>11</v>
@@ -5003,13 +5030,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B187" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="D187">
         <v>10</v>
@@ -5020,13 +5047,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C188" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D188">
         <v>10</v>
@@ -5037,13 +5064,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B189" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C189" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="D189">
         <v>10</v>
@@ -5054,13 +5081,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B190" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C190" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="D190">
         <v>10</v>
@@ -5071,13 +5098,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C191" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="D191">
         <v>10</v>
@@ -5088,13 +5115,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B192" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="D192">
         <v>9</v>
@@ -5105,13 +5132,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C193" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D193">
         <v>9</v>
@@ -5122,13 +5149,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B194" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C194" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -5139,13 +5166,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B195" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C195" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="D195">
         <v>8</v>
@@ -5156,13 +5183,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C196" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="D196">
         <v>8</v>
@@ -5173,13 +5200,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D197">
         <v>8</v>
@@ -5190,13 +5217,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B198" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="D198">
         <v>8</v>
@@ -5207,13 +5234,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C199" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="D199">
         <v>8</v>
@@ -5224,13 +5251,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B200" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D200">
         <v>7</v>
@@ -5241,13 +5268,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C201" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="D201">
         <v>7</v>
@@ -5258,13 +5285,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="D202">
         <v>7</v>
@@ -5275,13 +5302,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B203" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="D203">
         <v>6</v>
@@ -5292,13 +5319,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B204" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D204">
         <v>6</v>
@@ -5309,13 +5336,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B205" t="s">
         <v>23</v>
       </c>
       <c r="C205" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D205">
         <v>6</v>
@@ -5326,13 +5353,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B206" t="s">
         <v>23</v>
       </c>
       <c r="C206" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="D206">
         <v>6</v>
@@ -5343,13 +5370,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B207" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C207" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="D207">
         <v>6</v>
@@ -5360,13 +5387,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C208" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D208">
         <v>5</v>
@@ -5377,13 +5404,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B209" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D209">
         <v>5</v>
@@ -5394,13 +5421,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D210">
         <v>5</v>
@@ -5411,13 +5438,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="D211">
         <v>5</v>
@@ -5428,13 +5455,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B212" t="s">
         <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D212">
         <v>4</v>
@@ -5445,13 +5472,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D213">
         <v>4</v>
@@ -5462,13 +5489,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B214" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="D214">
         <v>4</v>
@@ -5479,13 +5506,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B215" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -5496,13 +5523,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C216" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D216">
         <v>4</v>
@@ -5513,13 +5540,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C217" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D217">
         <v>4</v>
@@ -5530,13 +5557,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -5547,13 +5574,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -5564,13 +5591,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D220">
         <v>3</v>
@@ -5581,13 +5608,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="D221">
         <v>3</v>
@@ -5598,13 +5625,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B222" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -5615,13 +5642,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B223" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="D223">
         <v>3</v>
@@ -5632,13 +5659,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D224">
         <v>3</v>
@@ -5649,13 +5676,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C225" t="s">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="D225">
         <v>3</v>
@@ -5666,13 +5693,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B226" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="D226">
         <v>2</v>
@@ -5683,13 +5710,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="D227">
         <v>2</v>
@@ -5700,13 +5727,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B228" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C228" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D228">
         <v>2</v>
@@ -5717,13 +5744,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B229" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -5734,13 +5761,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B230" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C230" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="D230">
         <v>2</v>
@@ -5751,13 +5778,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C231" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -5768,13 +5795,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C232" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="D232">
         <v>2</v>
@@ -5785,13 +5812,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B233" t="s">
         <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -5802,13 +5829,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -5819,13 +5846,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B235" t="s">
         <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="D235">
         <v>2</v>
@@ -5836,13 +5863,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B236" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D236">
         <v>2</v>
@@ -5853,13 +5880,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B237" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -5870,13 +5897,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C238" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -5887,13 +5914,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C239" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -5904,13 +5931,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -5921,13 +5948,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B241" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -5938,13 +5965,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B242" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C242" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -5955,13 +5982,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B243" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -5972,13 +5999,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B244" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C244" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -5989,13 +6016,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -6006,13 +6033,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B246" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C246" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -6023,13 +6050,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -6040,13 +6067,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B248" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -6057,13 +6084,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B249" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -6074,13 +6101,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -6091,13 +6118,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B251" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C251" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -6108,13 +6135,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B252" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -6125,13 +6152,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="B253" t="s">
         <v>39</v>
       </c>
       <c r="C253" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -6142,13 +6169,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B254" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C254" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -6159,13 +6186,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="B255" t="s">
         <v>39</v>
       </c>
       <c r="C255" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -6176,19 +6203,448 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B256" t="s">
         <v>39</v>
       </c>
       <c r="C256" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="D256">
         <v>1</v>
       </c>
       <c r="E256">
         <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>312</v>
+      </c>
+      <c r="B257" t="s">
+        <v>39</v>
+      </c>
+      <c r="C257" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>90</v>
+      </c>
+      <c r="B258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>313</v>
+      </c>
+      <c r="B259" t="s">
+        <v>39</v>
+      </c>
+      <c r="C259" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>327</v>
+      </c>
+      <c r="B260" t="s">
+        <v>75</v>
+      </c>
+      <c r="C260" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>160</v>
+      </c>
+      <c r="B261" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>120</v>
+      </c>
+      <c r="B262" t="s">
+        <v>39</v>
+      </c>
+      <c r="C262" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>163</v>
+      </c>
+      <c r="B263" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>175</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>115</v>
+      </c>
+      <c r="B266" t="s">
+        <v>75</v>
+      </c>
+      <c r="C266" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>40</v>
+      </c>
+      <c r="B267" t="s">
+        <v>39</v>
+      </c>
+      <c r="C267" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>328</v>
+      </c>
+      <c r="B268" t="s">
+        <v>39</v>
+      </c>
+      <c r="C268" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>100</v>
+      </c>
+      <c r="B269" t="s">
+        <v>99</v>
+      </c>
+      <c r="C269" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>48</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>117</v>
+      </c>
+      <c r="B271" t="s">
+        <v>23</v>
+      </c>
+      <c r="C271" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>109</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>21</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>58</v>
+      </c>
+      <c r="B276" t="s">
+        <v>17</v>
+      </c>
+      <c r="C276" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>88</v>
+      </c>
+      <c r="B278" t="s">
+        <v>39</v>
+      </c>
+      <c r="C278" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>240</v>
+      </c>
+      <c r="B280" t="s">
+        <v>39</v>
+      </c>
+      <c r="C280" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>185</v>
+      </c>
+      <c r="B281" t="s">
+        <v>39</v>
+      </c>
+      <c r="C281" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>66</v>
+      </c>
+      <c r="B282" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>130</v>
+      </c>
+      <c r="B283" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>329</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>125</v>
+      </c>
+      <c r="B286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C286" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>330</v>
+      </c>
+      <c r="B287" t="s">
+        <v>39</v>
+      </c>
+      <c r="C287" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>34</v>
+      </c>
+      <c r="B288" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>43</v>
+      </c>
+      <c r="B289" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>51</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>17</v>
+      </c>
+      <c r="C291" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>46</v>
+      </c>
+      <c r="B294" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>107</v>
+      </c>
+      <c r="B295" t="s">
+        <v>23</v>
+      </c>
+      <c r="C295" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
